--- a/data/trans_orig/P36B12-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B12-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24178</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15472</v>
+        <v>15935</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34867</v>
+        <v>36116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04139136069046137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02648752896172172</v>
+        <v>0.02727896933034616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05968971326852769</v>
+        <v>0.06182785129166585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>29433</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20345</v>
+        <v>20001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44574</v>
+        <v>43151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03197712166057769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02210354661302972</v>
+        <v>0.02172965722076119</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04842687586843299</v>
+        <v>0.04688098366281793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>53611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40523</v>
+        <v>41313</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70370</v>
+        <v>71062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03563213012887741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02693294109044428</v>
+        <v>0.02745825818455445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04677071605651731</v>
+        <v>0.04723037017441455</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>126167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107120</v>
+        <v>107754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147963</v>
+        <v>147486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2159874573605894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.18337971441013</v>
+        <v>0.1844657009325033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2533005227256296</v>
+        <v>0.252484158880578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -836,19 +836,19 @@
         <v>165266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>143483</v>
+        <v>145114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188965</v>
+        <v>189634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1795515288954874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1558860913054376</v>
+        <v>0.1576580613952577</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2052996510047626</v>
+        <v>0.2060263224503814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>292</v>
@@ -857,19 +857,19 @@
         <v>291433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259928</v>
+        <v>262141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320513</v>
+        <v>319351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1936975078394654</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1727583055328841</v>
+        <v>0.1742288674230554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2130252642540763</v>
+        <v>0.212253068947114</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>308139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>283445</v>
+        <v>284709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>332007</v>
+        <v>332808</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5275086238790966</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4852330539951458</v>
+        <v>0.4873976023952123</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5683680577982763</v>
+        <v>0.5697388397857615</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>531</v>
@@ -907,19 +907,19 @@
         <v>552576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>522487</v>
+        <v>523574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>582612</v>
+        <v>582690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6003406480072585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5676512110864671</v>
+        <v>0.5688319973083598</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6329728390026658</v>
+        <v>0.6330585152361839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>833</v>
@@ -928,19 +928,19 @@
         <v>860715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>818678</v>
+        <v>825624</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>896853</v>
+        <v>902302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5720641549092147</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5441246017261979</v>
+        <v>0.5487412877521124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5960824512661244</v>
+        <v>0.599704371510381</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>116585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97990</v>
+        <v>96938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136980</v>
+        <v>138878</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1995831626615376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1677500898324827</v>
+        <v>0.165949378927157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2344982763848666</v>
+        <v>0.2377481076020738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -978,19 +978,19 @@
         <v>157650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134380</v>
+        <v>133609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182468</v>
+        <v>181115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1712770165790635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.145995533547473</v>
+        <v>0.1451581989999534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1982404337345535</v>
+        <v>0.1967706285338641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>256</v>
@@ -999,19 +999,19 @@
         <v>274234</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243620</v>
+        <v>243328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304900</v>
+        <v>306541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1822666678199084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1619192278321117</v>
+        <v>0.161725369200427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2026482364596753</v>
+        <v>0.2037386746444856</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>9071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4485</v>
+        <v>4496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16453</v>
+        <v>17415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01552939540831503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007677108854342098</v>
+        <v>0.007697240822983296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02816575268386473</v>
+        <v>0.02981368140211738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1049,19 +1049,19 @@
         <v>15513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8968</v>
+        <v>9283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25193</v>
+        <v>24953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01685368485761282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009743025534938105</v>
+        <v>0.01008490307067477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02737119256944535</v>
+        <v>0.02711001515908489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1070,19 +1070,19 @@
         <v>24584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16008</v>
+        <v>16732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36148</v>
+        <v>36353</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01633953930253409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01063975494725296</v>
+        <v>0.0111205740779552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02402501309093235</v>
+        <v>0.02416186493023713</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>16838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10115</v>
+        <v>10443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25395</v>
+        <v>26533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01565116333936522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009401649325087632</v>
+        <v>0.009706919349131565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02360525620278846</v>
+        <v>0.02466330607395595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1195,19 +1195,19 @@
         <v>36219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25163</v>
+        <v>25864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48758</v>
+        <v>49944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.034286766992651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02382070415525903</v>
+        <v>0.02448374651085979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04615705202529655</v>
+        <v>0.04727918291899386</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1216,19 +1216,19 @@
         <v>53057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40800</v>
+        <v>40851</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69956</v>
+        <v>68765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02488389357871723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.019135480591886</v>
+        <v>0.01915946318164508</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03280967639566829</v>
+        <v>0.03225114864806741</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>195138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171804</v>
+        <v>170080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>223788</v>
+        <v>220489</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1813842599366381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1596955568159969</v>
+        <v>0.1580931415718316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2080150527771898</v>
+        <v>0.204949283112224</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -1266,19 +1266,19 @@
         <v>203929</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178716</v>
+        <v>180331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231362</v>
+        <v>230843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1930493570951792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1691815910719643</v>
+        <v>0.1707099220922059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2190189206811643</v>
+        <v>0.2185272213656859</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>398</v>
@@ -1287,19 +1287,19 @@
         <v>399067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>364385</v>
+        <v>365205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433358</v>
+        <v>438918</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1871635573119422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1708976416160549</v>
+        <v>0.1712821347723752</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2032462188047169</v>
+        <v>0.2058540755066878</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>581367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>551068</v>
+        <v>545716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>617144</v>
+        <v>615512</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5403926573425024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5122286384654207</v>
+        <v>0.5072536175760164</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5736476632454006</v>
+        <v>0.572131132761674</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>589</v>
@@ -1337,19 +1337,19 @@
         <v>603831</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>570683</v>
+        <v>571968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>634453</v>
+        <v>633696</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5716163171290002</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5402365097173215</v>
+        <v>0.5414528670639919</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6006046757029586</v>
+        <v>0.5998880446526601</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1164</v>
@@ -1358,19 +1358,19 @@
         <v>1185199</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1140072</v>
+        <v>1137745</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1229567</v>
+        <v>1228000</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5558619511339707</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5346975386674527</v>
+        <v>0.5336059577553394</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5766707080323146</v>
+        <v>0.5759357087321195</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>255212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228098</v>
+        <v>223495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>284597</v>
+        <v>283825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2372244998194954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2120214201221672</v>
+        <v>0.2077426512356988</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2645384261250037</v>
+        <v>0.2638214088593485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1408,19 +1408,19 @@
         <v>199808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>173224</v>
+        <v>176879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224800</v>
+        <v>228103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1891480304393293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1639819992294059</v>
+        <v>0.1674425017021628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.212806417307099</v>
+        <v>0.2159333117411602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>430</v>
@@ -1429,19 +1429,19 @@
         <v>455020</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>420569</v>
+        <v>416593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>494924</v>
+        <v>493360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2134057343581857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1972483178522557</v>
+        <v>0.1953832779202233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2321209336808165</v>
+        <v>0.2313873368597664</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>27269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17211</v>
+        <v>17534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40259</v>
+        <v>39550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02534741956199883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01599838305736997</v>
+        <v>0.01629787175451963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0374212857464031</v>
+        <v>0.0367621479254371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1479,19 +1479,19 @@
         <v>12570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6975</v>
+        <v>7043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20705</v>
+        <v>22726</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01189952834384032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006602674630578617</v>
+        <v>0.006666968770758122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01960003284668008</v>
+        <v>0.02151309683352457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1500,19 +1500,19 @@
         <v>39840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28868</v>
+        <v>28297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54509</v>
+        <v>53800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0186848636171842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01353928836279989</v>
+        <v>0.01327160954999463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0255648153871709</v>
+        <v>0.02523246708550634</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>27315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17851</v>
+        <v>18927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38140</v>
+        <v>38112</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02438587448073274</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01593687974612685</v>
+        <v>0.01689733425776132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03404995410634742</v>
+        <v>0.03402569195106447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1625,19 +1625,19 @@
         <v>26104</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16496</v>
+        <v>16902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36642</v>
+        <v>38575</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0262907531059576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01661461044971767</v>
+        <v>0.01702357211409902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03690443622806059</v>
+        <v>0.03885195847634797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1646,19 +1646,19 @@
         <v>53418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39939</v>
+        <v>41009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69428</v>
+        <v>70256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02528096617456513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01890185987046346</v>
+        <v>0.01940821985221782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03285801752305911</v>
+        <v>0.03324955389646767</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>260570</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234114</v>
+        <v>233184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>289059</v>
+        <v>290257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2326302711094881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2090107962128869</v>
+        <v>0.2081801130650114</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2580643198010684</v>
+        <v>0.2591339896727871</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1696,19 +1696,19 @@
         <v>185496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163073</v>
+        <v>162325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212207</v>
+        <v>213336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1868263244453985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.164242822413269</v>
+        <v>0.1634889446779419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2137284074213471</v>
+        <v>0.2148660725641914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>440</v>
@@ -1717,19 +1717,19 @@
         <v>446066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407746</v>
+        <v>406919</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>491134</v>
+        <v>482879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2111072555950856</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1929716264151881</v>
+        <v>0.1925803067303855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2324359220013131</v>
+        <v>0.2285294891462637</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>636630</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>603643</v>
+        <v>603870</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>667309</v>
+        <v>671850</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5683663289118472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5389160300491085</v>
+        <v>0.5391189641329576</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5957553901179342</v>
+        <v>0.5998096166285002</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>630</v>
@@ -1767,19 +1767,19 @@
         <v>635000</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>603878</v>
+        <v>604378</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>665777</v>
+        <v>664746</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6395534150104284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6082083315890525</v>
+        <v>0.608711988783646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6705514558650248</v>
+        <v>0.6695133420706411</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1259</v>
@@ -1788,19 +1788,19 @@
         <v>1271630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1222874</v>
+        <v>1227863</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1316142</v>
+        <v>1317596</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6018167381039023</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5787423912489879</v>
+        <v>0.5811034229643486</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6228827524091954</v>
+        <v>0.6235709409221497</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>165613</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142013</v>
+        <v>143161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>192097</v>
+        <v>189067</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1478551568793828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1267850276255185</v>
+        <v>0.1278101163089828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1714991798141921</v>
+        <v>0.168794034977223</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -1838,19 +1838,19 @@
         <v>135578</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115365</v>
+        <v>114555</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>158048</v>
+        <v>158731</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1365505273142967</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1161924386044536</v>
+        <v>0.1153765223001803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1591817549249529</v>
+        <v>0.1598691718274225</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>292</v>
@@ -1859,19 +1859,19 @@
         <v>301192</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268708</v>
+        <v>266591</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>332787</v>
+        <v>333438</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1425431753748572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1271697385862928</v>
+        <v>0.1261678530958994</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.157496352911106</v>
+        <v>0.1578044335635301</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>29977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20734</v>
+        <v>20226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42703</v>
+        <v>42986</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02676236861854918</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01851098726050321</v>
+        <v>0.01805717472970581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03812366607565592</v>
+        <v>0.03837633598408535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1909,19 +1909,19 @@
         <v>10702</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5109</v>
+        <v>5083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19124</v>
+        <v>19990</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01077898012391881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005146092500511295</v>
+        <v>0.005119623735217843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01926124024843511</v>
+        <v>0.02013375066120134</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1930,19 +1930,19 @@
         <v>40679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29114</v>
+        <v>29850</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56016</v>
+        <v>56609</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0192518647515897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01377844990449874</v>
+        <v>0.01412704721134939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02651035414098689</v>
+        <v>0.02679112021312548</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>8254</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3631</v>
+        <v>3682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15774</v>
+        <v>16506</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01849965378147839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008137004887006916</v>
+        <v>0.008252686262622358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03535359124231244</v>
+        <v>0.03699529590569513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2055,19 +2055,19 @@
         <v>10470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4789</v>
+        <v>4706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19722</v>
+        <v>19175</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03077857096755403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01407733714470736</v>
+        <v>0.01383361723240228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05797490303278297</v>
+        <v>0.0563674474206701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2076,19 +2076,19 @@
         <v>18724</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11300</v>
+        <v>11385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31284</v>
+        <v>29829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02381154584656947</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01437001837151512</v>
+        <v>0.01447777584597729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0397834638524243</v>
+        <v>0.03793304852711223</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>66603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53321</v>
+        <v>51802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84547</v>
+        <v>83424</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1492757996364922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1195080740509925</v>
+        <v>0.1161040828085782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1894944955818863</v>
+        <v>0.1869781815864523</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -2126,19 +2126,19 @@
         <v>46086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35190</v>
+        <v>34339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59609</v>
+        <v>58657</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1354769353648084</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1034472678227372</v>
+        <v>0.1009452566158377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1752286190459603</v>
+        <v>0.1724319571060602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>111</v>
@@ -2147,19 +2147,19 @@
         <v>112689</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95261</v>
+        <v>91791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>135950</v>
+        <v>131790</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1433063744403401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1211439191038625</v>
+        <v>0.1167303432424023</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1728881264302767</v>
+        <v>0.1675976322644264</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>242566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>223119</v>
+        <v>221570</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>263518</v>
+        <v>263869</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5436608161400771</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5000738455795454</v>
+        <v>0.4966026688955383</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5906208391175991</v>
+        <v>0.5914061370782698</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>193</v>
@@ -2197,19 +2197,19 @@
         <v>192297</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172718</v>
+        <v>175042</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>211047</v>
+        <v>210008</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5652864313524921</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5077318878632265</v>
+        <v>0.514563011518649</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.620403974072642</v>
+        <v>0.617350898890942</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>432</v>
@@ -2218,19 +2218,19 @@
         <v>434863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>405888</v>
+        <v>408787</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>463065</v>
+        <v>463390</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5530161145030147</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5161678833047126</v>
+        <v>0.5198552193064269</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5888799337265093</v>
+        <v>0.5892940170892575</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>118900</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101529</v>
+        <v>101909</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138206</v>
+        <v>139318</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2664893791508526</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2275565697882563</v>
+        <v>0.2284063782629612</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3097588373592658</v>
+        <v>0.3122520315735582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -2268,19 +2268,19 @@
         <v>83838</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68139</v>
+        <v>68121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100060</v>
+        <v>99925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2464554787431286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2003037081223082</v>
+        <v>0.2002530254030505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2941420264400849</v>
+        <v>0.2937462603228159</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>197</v>
@@ -2289,19 +2289,19 @@
         <v>202738</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>178800</v>
+        <v>179900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229565</v>
+        <v>229425</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2578226608241509</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2273803238218008</v>
+        <v>0.2287791552987836</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2919385530547589</v>
+        <v>0.2917605856050283</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>9849</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4420</v>
+        <v>4828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17922</v>
+        <v>18443</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02207435129109974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009905985000995125</v>
+        <v>0.01082123329888632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04016877032423894</v>
+        <v>0.0413359108565614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2339,19 +2339,19 @@
         <v>7485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3014</v>
+        <v>3024</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14847</v>
+        <v>15110</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02200258357201682</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008859591608491691</v>
+        <v>0.008889433792880489</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04364618766581648</v>
+        <v>0.04441865533183682</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2360,19 +2360,19 @@
         <v>17334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10254</v>
+        <v>10269</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27905</v>
+        <v>28806</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02204330438592486</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01303942443878551</v>
+        <v>0.0130585593115485</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0354870550324245</v>
+        <v>0.0366322019975967</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>76585</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60635</v>
+        <v>59636</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94181</v>
+        <v>94810</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02373816378522484</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0187944083578711</v>
+        <v>0.01848477875044668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02919230765339072</v>
+        <v>0.02938721714169566</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>96</v>
@@ -2485,19 +2485,19 @@
         <v>102226</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>81102</v>
+        <v>84880</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>121738</v>
+        <v>126663</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03088529348916335</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02450310058872017</v>
+        <v>0.02564461925045434</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03678046652598764</v>
+        <v>0.03826856514811057</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>174</v>
@@ -2506,19 +2506,19 @@
         <v>178811</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154442</v>
+        <v>155210</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>206426</v>
+        <v>208557</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0273574405047418</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02362913417319467</v>
+        <v>0.02374656952069803</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0315824160388075</v>
+        <v>0.03190857452379631</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>648478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>604029</v>
+        <v>599785</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>698841</v>
+        <v>693084</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2010009469668813</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1872237709540707</v>
+        <v>0.1859080808719851</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2166113638731163</v>
+        <v>0.2148268162513159</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>596</v>
@@ -2556,19 +2556,19 @@
         <v>600777</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>556166</v>
+        <v>559132</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>643040</v>
+        <v>648486</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1815118570302275</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1680334568017764</v>
+        <v>0.1689297262672281</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1942808048744535</v>
+        <v>0.1959260687810463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1241</v>
@@ -2577,19 +2577,19 @@
         <v>1249255</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1183112</v>
+        <v>1191590</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1317488</v>
+        <v>1308501</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.191131752980737</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1810121567596509</v>
+        <v>0.1823092592023175</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.201571159238993</v>
+        <v>0.2001961549713574</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1768704</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1712276</v>
+        <v>1713918</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1828382</v>
+        <v>1828989</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5482239099793249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5307336373009618</v>
+        <v>0.5312426069072065</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5667216560576908</v>
+        <v>0.5669099762236459</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1943</v>
@@ -2627,19 +2627,19 @@
         <v>1983703</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1927854</v>
+        <v>1926687</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2040077</v>
+        <v>2038193</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5993332877439592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5824595190977997</v>
+        <v>0.5821070103922101</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.616365491223078</v>
+        <v>0.6157962698701777</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3688</v>
@@ -2648,19 +2648,19 @@
         <v>3752407</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3672370</v>
+        <v>3679473</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3832314</v>
+        <v>3830325</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5741054860462325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5618601446954479</v>
+        <v>0.5629469269168911</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5863310367317575</v>
+        <v>0.5860266306189312</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>656310</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>606930</v>
+        <v>611566</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>705023</v>
+        <v>705617</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2034286021738818</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1881229769980244</v>
+        <v>0.1895596611508819</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2185274983359532</v>
+        <v>0.218711690802224</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>550</v>
@@ -2698,19 +2698,19 @@
         <v>576874</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>536632</v>
+        <v>533807</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>625739</v>
+        <v>623305</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1742901087123806</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.162131705071849</v>
+        <v>0.1612783676588865</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1890537125788083</v>
+        <v>0.1883182014905112</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1175</v>
@@ -2719,19 +2719,19 @@
         <v>1233184</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1169558</v>
+        <v>1168876</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1297624</v>
+        <v>1295546</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1886729904254489</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1789383297050376</v>
+        <v>0.1788341282225273</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1985320120212857</v>
+        <v>0.1982140844328646</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>76166</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59771</v>
+        <v>60031</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95953</v>
+        <v>96725</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0236083770946872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01852663932889867</v>
+        <v>0.01860709962769519</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02974144427383641</v>
+        <v>0.02998062584533576</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -2769,19 +2769,19 @@
         <v>46270</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34589</v>
+        <v>34164</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>61502</v>
+        <v>62957</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01397945302426929</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01045045644895045</v>
+        <v>0.01032178183862286</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01858161489585239</v>
+        <v>0.01902116837790639</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>115</v>
@@ -2790,19 +2790,19 @@
         <v>122436</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>101833</v>
+        <v>101918</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>145317</v>
+        <v>146318</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01873233004283984</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01558014414094255</v>
+        <v>0.0155931762662627</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02223305131295639</v>
+        <v>0.02238622389699518</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>21607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13580</v>
+        <v>13243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33624</v>
+        <v>32375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02082041977630333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01308536698694133</v>
+        <v>0.01276143695156026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03240030972677357</v>
+        <v>0.03119644135517485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -3155,19 +3155,19 @@
         <v>23372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14677</v>
+        <v>15425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34160</v>
+        <v>35290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02094347433362657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01315218386814438</v>
+        <v>0.01382232616782262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03061027395172238</v>
+        <v>0.03162257780323978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -3176,19 +3176,19 @@
         <v>44979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32407</v>
+        <v>32804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59768</v>
+        <v>61214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02088418108951594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0150469742146669</v>
+        <v>0.01523108238992293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02775059085620426</v>
+        <v>0.02842203356266898</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>121770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100920</v>
+        <v>101505</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144679</v>
+        <v>144271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1173383248067381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09724733877678614</v>
+        <v>0.09781072081652628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1394137462709616</v>
+        <v>0.1390202324605934</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -3226,19 +3226,19 @@
         <v>151133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126908</v>
+        <v>128029</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175040</v>
+        <v>178310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1354268185523558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.113719377925414</v>
+        <v>0.1147244934259967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1568498586585172</v>
+        <v>0.1597799908439996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>250</v>
@@ -3247,19 +3247,19 @@
         <v>272903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>239893</v>
+        <v>242125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>305563</v>
+        <v>307070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1267109652058178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1113843902233682</v>
+        <v>0.1124206221501653</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.141875328846979</v>
+        <v>0.1425752956189011</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>612698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>580876</v>
+        <v>579705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>644039</v>
+        <v>646005</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5903987163983478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5597350598928009</v>
+        <v>0.5586064566327272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6205991143529757</v>
+        <v>0.6224937772449324</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>642</v>
@@ -3297,19 +3297,19 @@
         <v>691804</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>657426</v>
+        <v>655382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>725713</v>
+        <v>723829</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6199117529026407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5891064537231449</v>
+        <v>0.5872750232378701</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6502964502897839</v>
+        <v>0.648608764630152</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1217</v>
@@ -3318,19 +3318,19 @@
         <v>1304502</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1260067</v>
+        <v>1255324</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1353610</v>
+        <v>1350946</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6056910388067112</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5850592416412929</v>
+        <v>0.5828571414184452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6284922779998945</v>
+        <v>0.6272553189904271</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>255379</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>226415</v>
+        <v>229020</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284116</v>
+        <v>284225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2460839325270376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2181748371065813</v>
+        <v>0.22068501815123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2737757802913571</v>
+        <v>0.2738807184857074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>205</v>
@@ -3368,19 +3368,19 @@
         <v>228540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201755</v>
+        <v>198993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>255382</v>
+        <v>260631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2047898597923087</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1807883015440222</v>
+        <v>0.1783140132536509</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2288424976483327</v>
+        <v>0.2335465117178191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>446</v>
@@ -3389,19 +3389,19 @@
         <v>483918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448092</v>
+        <v>448259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>524740</v>
+        <v>529962</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2246872092951862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2080526256258249</v>
+        <v>0.2081301046119046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.243640862855037</v>
+        <v>0.2460655593791081</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>26316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17609</v>
+        <v>16951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38596</v>
+        <v>38118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02535860649157315</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01696783534919234</v>
+        <v>0.01633362978199929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0371909503575767</v>
+        <v>0.03673101573502571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3439,19 +3439,19 @@
         <v>21123</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13002</v>
+        <v>13543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31403</v>
+        <v>31942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01892809441906834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01165062582177138</v>
+        <v>0.0121354064307566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02813997704805271</v>
+        <v>0.02862293034550403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -3460,19 +3460,19 @@
         <v>47440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34465</v>
+        <v>34864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62420</v>
+        <v>63726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02202660560276889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01600228269583361</v>
+        <v>0.01618786642147602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0289820257833732</v>
+        <v>0.02958850795048889</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>18234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11132</v>
+        <v>10953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29687</v>
+        <v>28949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01869931842803339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0114157843247056</v>
+        <v>0.01123221720298683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03044357494951185</v>
+        <v>0.02968686381268915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3585,19 +3585,19 @@
         <v>30330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19565</v>
+        <v>20765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43730</v>
+        <v>42685</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02771747469272038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01787968117361595</v>
+        <v>0.01897635158586857</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03996298427478671</v>
+        <v>0.03900759032792311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -3606,19 +3606,19 @@
         <v>48565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34892</v>
+        <v>35615</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62687</v>
+        <v>64172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02346795968505042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01686079299459694</v>
+        <v>0.01721033558345306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03029238384089014</v>
+        <v>0.03100990688338249</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>159515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137582</v>
+        <v>137985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182390</v>
+        <v>183809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1635823402547588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1410896734538821</v>
+        <v>0.1415026143390976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1870397488382397</v>
+        <v>0.1884949039310644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>199</v>
@@ -3656,19 +3656,19 @@
         <v>214827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188956</v>
+        <v>190519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242457</v>
+        <v>243726</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1963210315292674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1726785514935215</v>
+        <v>0.1741073607124865</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2215716220378311</v>
+        <v>0.2227306630415529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>353</v>
@@ -3677,19 +3677,19 @@
         <v>374342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>339295</v>
+        <v>339797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>415298</v>
+        <v>412187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1808939801654234</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1639583124877902</v>
+        <v>0.1642009024642749</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2006851660436448</v>
+        <v>0.1991817330842577</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>586367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>553743</v>
+        <v>555619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>618387</v>
+        <v>620217</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6013173178450297</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5678615552440432</v>
+        <v>0.5697847226852665</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6341536322724234</v>
+        <v>0.6360296192295668</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>583</v>
@@ -3727,19 +3727,19 @@
         <v>621550</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>587891</v>
+        <v>585117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>655568</v>
+        <v>650808</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5680079521306342</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5372493024951782</v>
+        <v>0.5347137723388177</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5990962992880646</v>
+        <v>0.5947463554653659</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1140</v>
@@ -3748,19 +3748,19 @@
         <v>1207917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1163424</v>
+        <v>1158168</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1257342</v>
+        <v>1254050</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.58370391540126</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.562203370820599</v>
+        <v>0.5596636950056518</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6075877060165342</v>
+        <v>0.6059970636334164</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>195862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170164</v>
+        <v>170827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>222504</v>
+        <v>224130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2008552844106892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1745020757360045</v>
+        <v>0.1751826949996376</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.228176964935829</v>
+        <v>0.2298448666984617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>203</v>
@@ -3798,19 +3798,19 @@
         <v>219435</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193642</v>
+        <v>192442</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>249047</v>
+        <v>246049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.200532630218352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1769609720758471</v>
+        <v>0.1758646890317961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2275932773084527</v>
+        <v>0.2248541579537106</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>382</v>
@@ -3819,19 +3819,19 @@
         <v>415297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>379961</v>
+        <v>380075</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>454679</v>
+        <v>459656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2006846705902841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1836094095305034</v>
+        <v>0.1836645671689103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2197152196045979</v>
+        <v>0.2221204350306996</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>15159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8919</v>
+        <v>8509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24100</v>
+        <v>24702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01554573906148896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009146381602711263</v>
+        <v>0.008726249254926233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02471457436087932</v>
+        <v>0.02533181686330546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -3869,19 +3869,19 @@
         <v>8120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3954</v>
+        <v>3960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15252</v>
+        <v>15403</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007420911429025987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003613005089986885</v>
+        <v>0.003618538995532638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.013938433788318</v>
+        <v>0.01407592870228088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -3890,19 +3890,19 @@
         <v>23280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15677</v>
+        <v>15376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34857</v>
+        <v>36883</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01124947415798214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007575831620933084</v>
+        <v>0.007430011568599347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01684402535672582</v>
+        <v>0.01782284288779882</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>24009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14240</v>
+        <v>15843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35204</v>
+        <v>36689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02712577287119002</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01608825847837468</v>
+        <v>0.01789938127129671</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03977344955088121</v>
+        <v>0.04145119587615251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -4015,19 +4015,19 @@
         <v>19684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11546</v>
+        <v>12062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30718</v>
+        <v>30422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02255187680836148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01322810528408234</v>
+        <v>0.01381977947709082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03519477038252668</v>
+        <v>0.03485501099916363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -4036,19 +4036,19 @@
         <v>43693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31951</v>
+        <v>31055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59081</v>
+        <v>59069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02485482801771182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01817525692593698</v>
+        <v>0.01766586399243114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03360854106032574</v>
+        <v>0.0336014347996843</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>170301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148600</v>
+        <v>145657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197119</v>
+        <v>194343</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1924050159518589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1678878399895389</v>
+        <v>0.1645630906808094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.222704005086064</v>
+        <v>0.2195676776880777</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>189</v>
@@ -4086,19 +4086,19 @@
         <v>201448</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176946</v>
+        <v>173648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>229434</v>
+        <v>226818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2308027964922463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.202730229127658</v>
+        <v>0.1989518636816228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2628665196313147</v>
+        <v>0.2598695825908879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>346</v>
@@ -4107,19 +4107,19 @@
         <v>371748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>335424</v>
+        <v>338620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405422</v>
+        <v>405630</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2114695598123622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1908061810903652</v>
+        <v>0.192624572512047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2306245129424712</v>
+        <v>0.230743030648942</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>468342</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>438735</v>
+        <v>438837</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>497795</v>
+        <v>497653</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.529130745918859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.495680881854185</v>
+        <v>0.4957969539680971</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5624067931891845</v>
+        <v>0.5622471223726371</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>420</v>
@@ -4157,19 +4157,19 @@
         <v>446365</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>417004</v>
+        <v>415005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>476740</v>
+        <v>478345</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5114090846535917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4777699872180934</v>
+        <v>0.4754794455936215</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5462103243223834</v>
+        <v>0.5480491638050382</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>864</v>
@@ -4178,19 +4178,19 @@
         <v>914707</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>873698</v>
+        <v>869120</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>960277</v>
+        <v>957373</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5203319199524127</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4970039555613978</v>
+        <v>0.4944001002133197</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5462549322667544</v>
+        <v>0.5446025508977188</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>214321</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189796</v>
+        <v>188076</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>242062</v>
+        <v>240383</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2421393730079505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2144303844511984</v>
+        <v>0.2124872943181452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2734806175444561</v>
+        <v>0.2715834333070604</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>179</v>
@@ -4228,19 +4228,19 @@
         <v>191084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>166237</v>
+        <v>167173</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>216504</v>
+        <v>218812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2189284572113628</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1904606503378574</v>
+        <v>0.1915329940999317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2480528309013167</v>
+        <v>0.2506966461117018</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>378</v>
@@ -4249,19 +4249,19 @@
         <v>405405</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369407</v>
+        <v>373540</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>445101</v>
+        <v>444221</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2306151256160717</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2101377948892732</v>
+        <v>0.2124886084457957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.253196226520624</v>
+        <v>0.2526954006466498</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>8142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3827</v>
+        <v>3890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16747</v>
+        <v>15386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009199092250141511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004323243106694611</v>
+        <v>0.004394719653646983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01892100218427701</v>
+        <v>0.01738349404119905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -4299,19 +4299,19 @@
         <v>14234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7923</v>
+        <v>7677</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24080</v>
+        <v>23852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01630778483443775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009077485688337874</v>
+        <v>0.008795755974782068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02758892194456038</v>
+        <v>0.02732764142256874</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4320,19 +4320,19 @@
         <v>22376</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14563</v>
+        <v>14213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32769</v>
+        <v>32884</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01272856660144167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008283976545300142</v>
+        <v>0.008085032673958482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01864095800397185</v>
+        <v>0.01870582100608902</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>16683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10106</v>
+        <v>9761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27744</v>
+        <v>26955</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03329345523886024</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02016739391783752</v>
+        <v>0.01947940505693602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05536683990012203</v>
+        <v>0.05379195775760513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4445,19 +4445,19 @@
         <v>10179</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5149</v>
+        <v>5125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18437</v>
+        <v>17433</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02263194538907166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01144765163705498</v>
+        <v>0.0113951824199475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04099233696318834</v>
+        <v>0.03876090718713525</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -4466,19 +4466,19 @@
         <v>26862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18446</v>
+        <v>16940</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39425</v>
+        <v>39342</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02825050086225379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01939899050679294</v>
+        <v>0.01781559398042892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04146255894164313</v>
+        <v>0.04137471082038018</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>76523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61909</v>
+        <v>61279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94789</v>
+        <v>95276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1527111337807933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1235466992986992</v>
+        <v>0.1222883480034359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1891616686231193</v>
+        <v>0.1901337936175849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -4516,19 +4516,19 @@
         <v>60148</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47531</v>
+        <v>45187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76561</v>
+        <v>76158</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1337330846577024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1056807576234794</v>
+        <v>0.1004672519618808</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1702247430190023</v>
+        <v>0.1693288903526223</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>127</v>
@@ -4537,19 +4537,19 @@
         <v>136672</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>114830</v>
+        <v>115903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>159012</v>
+        <v>159849</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1437344093549709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1207635388839831</v>
+        <v>0.1218921182411123</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1672291626304421</v>
+        <v>0.1681095920101294</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>267037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>244787</v>
+        <v>242626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>289079</v>
+        <v>290997</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5329020996776416</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4885002372719282</v>
+        <v>0.4841885739537755</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5768903339609462</v>
+        <v>0.580718524750237</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>235</v>
@@ -4587,19 +4587,19 @@
         <v>260168</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>236624</v>
+        <v>235879</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>280964</v>
+        <v>281917</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5784538580616942</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5261079793012597</v>
+        <v>0.5244498958854383</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6246909658088964</v>
+        <v>0.6268100296686206</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>476</v>
@@ -4608,19 +4608,19 @@
         <v>527204</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>495825</v>
+        <v>494217</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>556848</v>
+        <v>558933</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.55444833867582</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5214478192148787</v>
+        <v>0.5197561701687422</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5856235236434174</v>
+        <v>0.5878161337486205</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>127157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>107064</v>
+        <v>105428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150024</v>
+        <v>146178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2537570144900116</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2136580846585132</v>
+        <v>0.2103933091289313</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2993891364041943</v>
+        <v>0.29171419070957</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>102</v>
@@ -4658,19 +4658,19 @@
         <v>112002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95297</v>
+        <v>93506</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132809</v>
+        <v>132113</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2490236051804541</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2118830796756217</v>
+        <v>0.2079008782071801</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2952857613434201</v>
+        <v>0.2937382781533104</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>221</v>
@@ -4679,19 +4679,19 @@
         <v>239159</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>212195</v>
+        <v>210869</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>270093</v>
+        <v>268948</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2515180851516519</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.22316020309068</v>
+        <v>0.2217656505498302</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2840501585533305</v>
+        <v>0.282845973888676</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>13698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8131</v>
+        <v>7259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22928</v>
+        <v>22770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02733629681269333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01622669372069682</v>
+        <v>0.01448646289692802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04575598488730899</v>
+        <v>0.04543948997470055</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4729,19 +4729,19 @@
         <v>7267</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3086</v>
+        <v>2990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14380</v>
+        <v>14152</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01615750671107761</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006862284763786731</v>
+        <v>0.006646988128041434</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03197175150968441</v>
+        <v>0.03146586582228923</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -4750,19 +4750,19 @@
         <v>20965</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13142</v>
+        <v>12790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31215</v>
+        <v>31213</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02204866595530348</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01382108204412557</v>
+        <v>0.01345120731399422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03282792830799446</v>
+        <v>0.03282562870296701</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>80534</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>62501</v>
+        <v>63913</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100629</v>
+        <v>102422</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02369258052075383</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01838733399331991</v>
+        <v>0.01880285959865846</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0296042963121824</v>
+        <v>0.03013198069759106</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -4875,19 +4875,19 @@
         <v>83565</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>66351</v>
+        <v>65770</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>102635</v>
+        <v>102214</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02365400148300085</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01878138094482708</v>
+        <v>0.01861691052274473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02905185034266534</v>
+        <v>0.02893280522558902</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>150</v>
@@ -4896,19 +4896,19 @@
         <v>164099</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138248</v>
+        <v>137417</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190467</v>
+        <v>192713</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02367291898609551</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01994366130844508</v>
+        <v>0.01982368564151087</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02747673030381282</v>
+        <v>0.02780070040492803</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>528110</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>480289</v>
+        <v>481666</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>572518</v>
+        <v>576323</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1553664456713973</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1412980122225278</v>
+        <v>0.1417030406958654</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1684309611948807</v>
+        <v>0.1695503932374498</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>582</v>
@@ -4946,19 +4946,19 @@
         <v>627555</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>585066</v>
+        <v>579154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>676263</v>
+        <v>673434</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1776362385445198</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.165609206197642</v>
+        <v>0.1639356661790603</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1914235190593236</v>
+        <v>0.1906226856572165</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1076</v>
@@ -4967,19 +4967,19 @@
         <v>1155665</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1094808</v>
+        <v>1092110</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1222953</v>
+        <v>1222142</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.166716088635852</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1579368571323146</v>
+        <v>0.1575476349544897</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1764230793779853</v>
+        <v>0.1763059910528365</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1934444</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1877037</v>
+        <v>1871037</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1994905</v>
+        <v>1998235</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5691009922712508</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.552212121078706</v>
+        <v>0.5504469651664008</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5868881540891084</v>
+        <v>0.5878678978358519</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1880</v>
@@ -5017,19 +5017,19 @@
         <v>2019886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1959457</v>
+        <v>1966587</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2081236</v>
+        <v>2084483</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5717503260786622</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5546451243553661</v>
+        <v>0.5566632577728408</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5891160703400957</v>
+        <v>0.590034953820761</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3697</v>
@@ -5038,19 +5038,19 @@
         <v>3954331</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3861528</v>
+        <v>3869825</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4038983</v>
+        <v>4036191</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5704512065718099</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5570634789022468</v>
+        <v>0.5582604506342259</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5826631148997891</v>
+        <v>0.5822604351372866</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>792719</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>741465</v>
+        <v>741545</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>847497</v>
+        <v>844735</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2332127912853709</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2181340922377069</v>
+        <v>0.2181578004683297</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2493282081322417</v>
+        <v>0.2485156846394476</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>689</v>
@@ -5088,19 +5088,19 @@
         <v>751061</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>701815</v>
+        <v>698661</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>801114</v>
+        <v>796788</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2125957006577432</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1986561246035338</v>
+        <v>0.1977634407951854</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2267638892717477</v>
+        <v>0.2255393260058187</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1427</v>
@@ -5109,19 +5109,19 @@
         <v>1543780</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1476618</v>
+        <v>1472425</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1621338</v>
+        <v>1620294</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2227054363709123</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2130166619774667</v>
+        <v>0.2124118518523217</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.233894023078373</v>
+        <v>0.2337434314162004</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>63316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48442</v>
+        <v>47889</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>81282</v>
+        <v>79956</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01862719025122721</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01425137924845101</v>
+        <v>0.01408861847412496</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02391274581949174</v>
+        <v>0.02352258610726847</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -5159,19 +5159,19 @@
         <v>50744</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37112</v>
+        <v>37752</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66505</v>
+        <v>65986</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01436373323607395</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01050494927888303</v>
+        <v>0.01068613155621007</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01882492067454172</v>
+        <v>0.01867817813888317</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -5180,19 +5180,19 @@
         <v>114060</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>95053</v>
+        <v>94599</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>137414</v>
+        <v>136655</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01645434943533036</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01371240017619642</v>
+        <v>0.01364682226570433</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0198232935521233</v>
+        <v>0.01971385398749939</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>30575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20939</v>
+        <v>20572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42808</v>
+        <v>43492</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02717426379151765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01860972594856532</v>
+        <v>0.01828386547201677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03804630777683189</v>
+        <v>0.03865401647265937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5545,19 +5545,19 @@
         <v>19860</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11631</v>
+        <v>11896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30368</v>
+        <v>29427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01580408789940105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00925575605856384</v>
+        <v>0.009465958548573064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02416572853974491</v>
+        <v>0.02341714919484377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -5566,19 +5566,19 @@
         <v>50435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38398</v>
+        <v>37957</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66482</v>
+        <v>67691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02117526937864072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01612145171870774</v>
+        <v>0.01593615330629875</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02791229398968156</v>
+        <v>0.02842007244852194</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>129726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108322</v>
+        <v>109354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152889</v>
+        <v>153200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1152970561092511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0962731011121036</v>
+        <v>0.09719070761918709</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.135883358084617</v>
+        <v>0.1361598080100141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>155</v>
@@ -5616,19 +5616,19 @@
         <v>163552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140625</v>
+        <v>138925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>189628</v>
+        <v>187087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1301479780214236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1119034273819664</v>
+        <v>0.1105509872393667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1508981707120551</v>
+        <v>0.1488758929692213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -5637,19 +5637,19 @@
         <v>293278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260794</v>
+        <v>261132</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331377</v>
+        <v>329769</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1231325195552445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1094939655560535</v>
+        <v>0.1096358978063914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1391279891703953</v>
+        <v>0.1384528855591804</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>601615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>564971</v>
+        <v>565744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>632154</v>
+        <v>635343</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5346976707026573</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5021301001885782</v>
+        <v>0.5028173646189831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5618402227228944</v>
+        <v>0.5646744464972306</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>638</v>
@@ -5687,19 +5687,19 @@
         <v>676441</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>643129</v>
+        <v>637170</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>712631</v>
+        <v>713450</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5382841691049811</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5117756585545744</v>
+        <v>0.5070333237990396</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5670823482414964</v>
+        <v>0.5677340774062256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1205</v>
@@ -5708,19 +5708,19 @@
         <v>1278056</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1225554</v>
+        <v>1229231</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1325388</v>
+        <v>1328402</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5365899355261285</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.514546933600337</v>
+        <v>0.5160907410092838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5564622826962847</v>
+        <v>0.5577278071745055</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>327333</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>297019</v>
+        <v>298870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>357486</v>
+        <v>360357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2909240850801269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2639818643684651</v>
+        <v>0.2656272673807326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3177234397839969</v>
+        <v>0.3202752260093055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>335</v>
@@ -5758,19 +5758,19 @@
         <v>356799</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>325568</v>
+        <v>316983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>387908</v>
+        <v>388775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2839260745923399</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2590739041223638</v>
+        <v>0.2522422099423836</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3086812873063111</v>
+        <v>0.3093713079824559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>648</v>
@@ -5779,19 +5779,19 @@
         <v>684132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>642339</v>
+        <v>641025</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>728295</v>
+        <v>728348</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2872318795930864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2696850094058399</v>
+        <v>0.2691336328817359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3057736558505569</v>
+        <v>0.305796048702015</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>35900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25289</v>
+        <v>24755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49149</v>
+        <v>50131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03190692431644711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02247657544598945</v>
+        <v>0.02200188071485434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04368229742036329</v>
+        <v>0.04455522290986583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -5829,19 +5829,19 @@
         <v>40009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27769</v>
+        <v>28997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54653</v>
+        <v>54706</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03183769038185429</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02209781423959685</v>
+        <v>0.0230746972008933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0434904111766476</v>
+        <v>0.04353246530528692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -5850,19 +5850,19 @@
         <v>75909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58099</v>
+        <v>60558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95392</v>
+        <v>92909</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03187039594689992</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02439294439529754</v>
+        <v>0.02542516049478654</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0400502815960231</v>
+        <v>0.03900766287008869</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>18182</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10985</v>
+        <v>11649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28366</v>
+        <v>30251</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02013264306662103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01216276732828454</v>
+        <v>0.01289868247891805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03140823845890724</v>
+        <v>0.03349524476657773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5975,19 +5975,19 @@
         <v>17263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9935</v>
+        <v>10831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28077</v>
+        <v>28302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01728976454694832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009949958011299356</v>
+        <v>0.01084782581268406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0281199365789848</v>
+        <v>0.02834495358935101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5996,19 +5996,19 @@
         <v>35446</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25263</v>
+        <v>25462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48366</v>
+        <v>49552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01863993570779039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01328530693836757</v>
+        <v>0.01338990305547343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02543459886380952</v>
+        <v>0.02605799300397412</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>109514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91312</v>
+        <v>89390</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130138</v>
+        <v>128549</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1212606969385013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1011062390309307</v>
+        <v>0.09897850974606709</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1440967380012486</v>
+        <v>0.142337823072762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -6046,19 +6046,19 @@
         <v>136131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114349</v>
+        <v>115915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159729</v>
+        <v>161252</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1363399495257654</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1145236595234101</v>
+        <v>0.1160922479935454</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1599735152356635</v>
+        <v>0.1614993541803465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>231</v>
@@ -6067,19 +6067,19 @@
         <v>245646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>218006</v>
+        <v>217066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>279432</v>
+        <v>275977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1291783448952865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1146434822533309</v>
+        <v>0.114149095670097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1469455795670928</v>
+        <v>0.1451289110668613</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>543790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>515335</v>
+        <v>513531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>573142</v>
+        <v>571567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6021172823485587</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5706110286528231</v>
+        <v>0.5686132039113379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6346175513010411</v>
+        <v>0.6328740938211271</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>584</v>
@@ -6117,19 +6117,19 @@
         <v>618752</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>585154</v>
+        <v>588898</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>652295</v>
+        <v>649600</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6196994699824818</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5860501621573491</v>
+        <v>0.5898002738653562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6532942996763977</v>
+        <v>0.6505945177209427</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1115</v>
@@ -6138,19 +6138,19 @@
         <v>1162542</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1118525</v>
+        <v>1121393</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1208622</v>
+        <v>1204414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.611349143887447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5882019212506601</v>
+        <v>0.5897103967881536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6355816560278374</v>
+        <v>0.6333689234191865</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>211753</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187044</v>
+        <v>188384</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237882</v>
+        <v>241283</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2344662609944319</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2071065188779896</v>
+        <v>0.2085908674426136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.263397407868369</v>
+        <v>0.2671628988744303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>205</v>
@@ -6188,19 +6188,19 @@
         <v>214915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>189585</v>
+        <v>190596</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>242210</v>
+        <v>240381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2152436287702337</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1898757437202334</v>
+        <v>0.1908879887698028</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2425808813156907</v>
+        <v>0.2407495482849188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>409</v>
@@ -6209,19 +6209,19 @@
         <v>426668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>393179</v>
+        <v>392262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>466482</v>
+        <v>464160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2243730528680224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2067621353982746</v>
+        <v>0.2062799633415723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2453104858332652</v>
+        <v>0.2440891169321261</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>19890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12469</v>
+        <v>11578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29950</v>
+        <v>29629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02202311665188703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01380614519866483</v>
+        <v>0.01281992670459546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03316248900132215</v>
+        <v>0.03280673864158908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -6259,19 +6259,19 @@
         <v>11410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5822</v>
+        <v>6446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19855</v>
+        <v>20519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0114271871745707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005830712630590628</v>
+        <v>0.006455825038164591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01988586669715008</v>
+        <v>0.02055046965811687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -6280,19 +6280,19 @@
         <v>31299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22317</v>
+        <v>21095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44659</v>
+        <v>42804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01645952264145372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01173583428750423</v>
+        <v>0.01109353110725297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0234850888704326</v>
+        <v>0.02250928141748457</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>7612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2935</v>
+        <v>2984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15249</v>
+        <v>15288</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009267700774362066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003572751828206</v>
+        <v>0.003632385128771301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01856585222995551</v>
+        <v>0.01861307660432242</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6405,19 +6405,19 @@
         <v>11738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6464</v>
+        <v>6318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20965</v>
+        <v>21079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01533205768467486</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008442620043170816</v>
+        <v>0.008252625824962331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02738309435626643</v>
+        <v>0.02753188260953248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -6426,19 +6426,19 @@
         <v>19351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11970</v>
+        <v>12018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30804</v>
+        <v>32195</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01219333742634301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007542879546905716</v>
+        <v>0.007572986389811082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01941080614839175</v>
+        <v>0.02028678461338027</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>80907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66341</v>
+        <v>65529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101501</v>
+        <v>100763</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09850279657396391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08076831364121402</v>
+        <v>0.07978067538528971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1235757154254315</v>
+        <v>0.1226773164084654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -6476,19 +6476,19 @@
         <v>108104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88640</v>
+        <v>90005</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128755</v>
+        <v>128095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1412001968894045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1157777684923795</v>
+        <v>0.117560485987803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1681734108740101</v>
+        <v>0.1673120598016629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -6497,19 +6497,19 @@
         <v>189011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165499</v>
+        <v>164364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214596</v>
+        <v>218479</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.119101366406608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1042855270361338</v>
+        <v>0.1035705626951688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1352232488011575</v>
+        <v>0.1376701435067215</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>522861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>497013</v>
+        <v>492599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>551736</v>
+        <v>549424</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6365734031750164</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.605104523031445</v>
+        <v>0.5997303406230728</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6717277984863383</v>
+        <v>0.6689130632747627</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>458</v>
@@ -6547,19 +6547,19 @@
         <v>486891</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>461870</v>
+        <v>461534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>511584</v>
+        <v>515674</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6359542682731276</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6032728054260225</v>
+        <v>0.6028344704782875</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6682075520108419</v>
+        <v>0.6735490861637391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>961</v>
@@ -6568,19 +6568,19 @@
         <v>1009752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>970410</v>
+        <v>971125</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1048841</v>
+        <v>1046265</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6362747130107871</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6114840302193633</v>
+        <v>0.6119346990089946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6609056177798892</v>
+        <v>0.6592828968004434</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>194253</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>170696</v>
+        <v>172083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>218312</v>
+        <v>220854</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.236499899071274</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2078194297679524</v>
+        <v>0.2095080866652158</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2657903395964768</v>
+        <v>0.2688858459619762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>145</v>
@@ -6618,19 +6618,19 @@
         <v>151797</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130448</v>
+        <v>131389</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175926</v>
+        <v>173241</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1982695799865962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1703857033518864</v>
+        <v>0.1716136527896968</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2297860628640487</v>
+        <v>0.2262796725937957</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>327</v>
@@ -6639,19 +6639,19 @@
         <v>346050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>313183</v>
+        <v>311590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>381069</v>
+        <v>376462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2180563898278032</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1973460213179593</v>
+        <v>0.1963419013344718</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2401226335221407</v>
+        <v>0.2372200578273582</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>15734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9379</v>
+        <v>8908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26134</v>
+        <v>24820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01915620040538358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01141908512661435</v>
+        <v>0.0108455063060902</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03181759404476137</v>
+        <v>0.03021831479998687</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -6689,19 +6689,19 @@
         <v>7077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2680</v>
+        <v>3319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14153</v>
+        <v>14807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0092438971661968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00350040573722284</v>
+        <v>0.004335710764714145</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01848570200589881</v>
+        <v>0.01934057932432364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -6710,19 +6710,19 @@
         <v>22811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14444</v>
+        <v>13836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34254</v>
+        <v>34231</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01437419332845867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009101280025881779</v>
+        <v>0.008718505774385278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02158419455453796</v>
+        <v>0.0215697097100229</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>12130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6174</v>
+        <v>6080</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20985</v>
+        <v>21075</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02408576777919435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01226027874775867</v>
+        <v>0.0120720462162614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04166878796772237</v>
+        <v>0.04184846065797101</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6835,19 +6835,19 @@
         <v>8721</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3758</v>
+        <v>3917</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16795</v>
+        <v>16484</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01788379572307956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007705600620545708</v>
+        <v>0.008032531716122324</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03443943656091122</v>
+        <v>0.03380096724336387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -6856,19 +6856,19 @@
         <v>20851</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13038</v>
+        <v>12221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31815</v>
+        <v>32169</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02103463738458763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01315289774530567</v>
+        <v>0.01232882659842209</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03209523644787036</v>
+        <v>0.03245234530798081</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>79791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>63727</v>
+        <v>64315</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95992</v>
+        <v>97055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1584411273114464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.126542690087248</v>
+        <v>0.1277094500523168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1906097781413576</v>
+        <v>0.1927210483523418</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>93</v>
@@ -6906,19 +6906,19 @@
         <v>98862</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>81087</v>
+        <v>81105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117327</v>
+        <v>117966</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2027256206725759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1662765474711047</v>
+        <v>0.1663117872130378</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2405879920742688</v>
+        <v>0.241899810700049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>168</v>
@@ -6927,19 +6927,19 @@
         <v>178654</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>153945</v>
+        <v>156224</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>202761</v>
+        <v>204395</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1802273853728131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1553004374976817</v>
+        <v>0.1575996132782576</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2045470260217168</v>
+        <v>0.2061950507407981</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>283164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>259278</v>
+        <v>257670</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>305546</v>
+        <v>302374</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5622766621967807</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5148452348657436</v>
+        <v>0.5116531601130228</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6067196157863318</v>
+        <v>0.6004208631473578</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>251</v>
@@ -6977,19 +6977,19 @@
         <v>269726</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>246007</v>
+        <v>243712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>289922</v>
+        <v>291436</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5530950572911755</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5044570159130548</v>
+        <v>0.4997528879572671</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.594509360819614</v>
+        <v>0.5976132099689624</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>517</v>
@@ -6998,19 +6998,19 @@
         <v>552890</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>521197</v>
+        <v>523401</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>585348</v>
+        <v>583213</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5577596676754749</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5257873797683538</v>
+        <v>0.5280108366940772</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5905039450841668</v>
+        <v>0.5883500491679755</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>118916</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99452</v>
+        <v>100604</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138087</v>
+        <v>140082</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2361303904698649</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1974817747495325</v>
+        <v>0.1997694105489101</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2741982755627479</v>
+        <v>0.2781603402541162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -7048,19 +7048,19 @@
         <v>103371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85489</v>
+        <v>84804</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122796</v>
+        <v>123224</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2119715802009599</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.17530270719049</v>
+        <v>0.173897470219205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2518037832302746</v>
+        <v>0.2526807930618745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>203</v>
@@ -7069,19 +7069,19 @@
         <v>222287</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>192793</v>
+        <v>197285</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>248645</v>
+        <v>249109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2242451901429274</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1944915989112532</v>
+        <v>0.1990225640997154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.250834945272201</v>
+        <v>0.251303315213508</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>9602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4331</v>
+        <v>4459</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18341</v>
+        <v>18083</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01906605224271353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008600226135354262</v>
+        <v>0.008854713053246799</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03641861518029593</v>
+        <v>0.03590725209918353</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -7119,19 +7119,19 @@
         <v>6985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2353</v>
+        <v>2773</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14864</v>
+        <v>14854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01432394611220917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004824698224573802</v>
+        <v>0.005685302945211129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03047897691236759</v>
+        <v>0.03045944512835834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7140,19 +7140,19 @@
         <v>16587</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9345</v>
+        <v>8930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27729</v>
+        <v>26337</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01673311942419699</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009427792048422366</v>
+        <v>0.009008356863876112</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02797348739008901</v>
+        <v>0.02656891402251029</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>68499</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53340</v>
+        <v>53975</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88145</v>
+        <v>87227</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02042774726723847</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01590682539226214</v>
+        <v>0.01609637705486063</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02628639060588004</v>
+        <v>0.02601253663340627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -7265,19 +7265,19 @@
         <v>57583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>42817</v>
+        <v>43335</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74066</v>
+        <v>75966</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01641297375279772</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01220400005413644</v>
+        <v>0.01235180592455356</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02111089526731803</v>
+        <v>0.0216526590597753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>120</v>
@@ -7286,19 +7286,19 @@
         <v>126083</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105285</v>
+        <v>105466</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>149354</v>
+        <v>155658</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01837496901545921</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01534396640708267</v>
+        <v>0.01537030901685393</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02176639786741282</v>
+        <v>0.02268526875864202</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>399939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>363386</v>
+        <v>362100</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>441110</v>
+        <v>441727</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1192690687658068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.108368273524716</v>
+        <v>0.1079849647359786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1315469945428616</v>
+        <v>0.1317309858255875</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>479</v>
@@ -7336,19 +7336,19 @@
         <v>506650</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>464405</v>
+        <v>465403</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>550807</v>
+        <v>548929</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1444102386258286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1323692195298279</v>
+        <v>0.1326538168203687</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1569962987634991</v>
+        <v>0.1564611385231361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>853</v>
@@ -7357,19 +7357,19 @@
         <v>906589</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>855967</v>
+        <v>845918</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>966359</v>
+        <v>964932</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1321239026754427</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.124746378454098</v>
+        <v>0.1232818651869487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1408346164463139</v>
+        <v>0.1406266694852921</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1951429</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1889824</v>
+        <v>1889811</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2004142</v>
+        <v>2007866</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5819518292858348</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5635800323231237</v>
+        <v>0.5635760492766301</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5976718299220412</v>
+        <v>0.5987822716845463</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1931</v>
@@ -7407,19 +7407,19 @@
         <v>2051810</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1992213</v>
+        <v>1992073</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2108635</v>
+        <v>2114514</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5848268091160653</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5678400321274466</v>
+        <v>0.5678000123782272</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6010237240520053</v>
+        <v>0.6026992793940597</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3798</v>
@@ -7428,19 +7428,19 @@
         <v>4003239</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3917125</v>
+        <v>3924795</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4083242</v>
+        <v>4088558</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5834218240560437</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5708717461322459</v>
+        <v>0.5719896263785575</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5950811913313242</v>
+        <v>0.595855895344794</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>852256</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>797448</v>
+        <v>797918</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>902373</v>
+        <v>900745</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2541581713446499</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2378136708339945</v>
+        <v>0.2379536344311244</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2691040764475882</v>
+        <v>0.2686185124832085</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>780</v>
@@ -7478,19 +7478,19 @@
         <v>826882</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>777377</v>
+        <v>777948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>878063</v>
+        <v>877502</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2356858247256087</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.221575462144688</v>
+        <v>0.2217382204737022</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2502740939011243</v>
+        <v>0.2501141435975201</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1587</v>
@@ -7499,19 +7499,19 @@
         <v>1679137</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1606539</v>
+        <v>1600210</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1750989</v>
+        <v>1749532</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2447131475438047</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2341328824675909</v>
+        <v>0.2332104521914485</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2551845859280969</v>
+        <v>0.2549722639410347</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>81126</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65102</v>
+        <v>64383</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101675</v>
+        <v>101389</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02419318333647003</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01941463989206397</v>
+        <v>0.01920024041319159</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03032124799489941</v>
+        <v>0.0302361925794555</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>62</v>
@@ -7549,19 +7549,19 @@
         <v>65481</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50249</v>
+        <v>50895</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>82762</v>
+        <v>83805</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01866415377969969</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01432239739938758</v>
+        <v>0.01450662710606807</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02358964308948474</v>
+        <v>0.02388701913585058</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>140</v>
@@ -7570,19 +7570,19 @@
         <v>146607</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>124185</v>
+        <v>123655</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>172139</v>
+        <v>172308</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02136615670924971</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01809841868942195</v>
+        <v>0.01802113561921369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02508710934743083</v>
+        <v>0.02511175962127042</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>4061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1216</v>
+        <v>1395</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8921</v>
+        <v>10139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008157053051383412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002443584068391933</v>
+        <v>0.002802070903107395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01792019881848094</v>
+        <v>0.02036643487850028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -7935,19 +7935,19 @@
         <v>11156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5948</v>
+        <v>6384</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19737</v>
+        <v>20469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01790710819721003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009547579591218417</v>
+        <v>0.01024621643599538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03167939417045694</v>
+        <v>0.03285542402747017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -7956,19 +7956,19 @@
         <v>15217</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9456</v>
+        <v>9057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25641</v>
+        <v>24865</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01357667023152047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008437015492511791</v>
+        <v>0.008080788981651196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02287710864056384</v>
+        <v>0.02218447618443141</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>24410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14960</v>
+        <v>15798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38447</v>
+        <v>40029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04903566688100709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03005120546574438</v>
+        <v>0.03173436475362344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07723338701979859</v>
+        <v>0.08041181690256478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -8006,19 +8006,19 @@
         <v>43937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32726</v>
+        <v>33752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58362</v>
+        <v>59163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07052390108483854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05252867216011982</v>
+        <v>0.05417587069506245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09367771443110648</v>
+        <v>0.09496311396927351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -8027,19 +8027,19 @@
         <v>68347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53010</v>
+        <v>53465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89419</v>
+        <v>90423</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06098000991497875</v>
+        <v>0.06098000991497876</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04729583552586905</v>
+        <v>0.04770166130503215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07978001475094004</v>
+        <v>0.08067575647605418</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>271963</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>248350</v>
+        <v>248407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>297798</v>
+        <v>296456</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5463241029822694</v>
+        <v>0.5463241029822693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4988901895364217</v>
+        <v>0.4990049023081329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5982224196989498</v>
+        <v>0.595526951327971</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>506</v>
@@ -8077,19 +8077,19 @@
         <v>366116</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>340605</v>
+        <v>343700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>388313</v>
+        <v>389430</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5876552538450603</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5467074803778145</v>
+        <v>0.5516744553519605</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6232827338350134</v>
+        <v>0.6250758208985293</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>755</v>
@@ -8098,19 +8098,19 @@
         <v>638079</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>605117</v>
+        <v>604092</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>671147</v>
+        <v>671008</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5692982310195551</v>
+        <v>0.5692982310195553</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5398892944792412</v>
+        <v>0.5389745365336708</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5988019350151483</v>
+        <v>0.5986780045052217</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>166332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>142393</v>
+        <v>145623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190239</v>
+        <v>191688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.334130491143108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.286042612900806</v>
+        <v>0.2925293126026245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3821564284728372</v>
+        <v>0.3850662890043297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>251</v>
@@ -8148,19 +8148,19 @@
         <v>181328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159985</v>
+        <v>163211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202768</v>
+        <v>202405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2910511861122145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2567920492877588</v>
+        <v>0.2619705521411103</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3254637813028499</v>
+        <v>0.324881773795248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>401</v>
@@ -8169,19 +8169,19 @@
         <v>347660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>317550</v>
+        <v>317024</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>380808</v>
+        <v>378467</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3101846428210366</v>
+        <v>0.3101846428210367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.283320218839442</v>
+        <v>0.2828504194034468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3397590009004881</v>
+        <v>0.3376704147887755</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>31039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20308</v>
+        <v>19409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45258</v>
+        <v>44327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06235268594223224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04079458992501362</v>
+        <v>0.03898862793988708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09091483137595172</v>
+        <v>0.08904588516332354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -8219,19 +8219,19 @@
         <v>20474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14138</v>
+        <v>13968</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28878</v>
+        <v>28571</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03286255076067659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02269266541366394</v>
+        <v>0.0224202906872102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04635179706657514</v>
+        <v>0.0458600740428101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -8240,19 +8240,19 @@
         <v>51513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38730</v>
+        <v>38271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67705</v>
+        <v>66750</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04596044601290893</v>
+        <v>0.04596044601290895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03455556687397344</v>
+        <v>0.03414603716694296</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06040677072647716</v>
+        <v>0.05955481216020073</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>5530</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2366</v>
+        <v>2152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11754</v>
+        <v>10728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005759139545782987</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002464638255515976</v>
+        <v>0.002241045005372193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01224154592214768</v>
+        <v>0.01117307013291694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -8365,19 +8365,19 @@
         <v>7705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3719</v>
+        <v>3826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14114</v>
+        <v>14425</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006904883508252315</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0033327433625119</v>
+        <v>0.003428876774653558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01264858437441745</v>
+        <v>0.01292713440854129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -8386,19 +8386,19 @@
         <v>13234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7569</v>
+        <v>8119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22159</v>
+        <v>21881</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006374980701899303</v>
+        <v>0.006374980701899302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003646085624521137</v>
+        <v>0.003910870609857215</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01067379656668994</v>
+        <v>0.01054026247281752</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>71463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56020</v>
+        <v>53326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91668</v>
+        <v>89729</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07443034689788662</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05834547065069407</v>
+        <v>0.05553983771780032</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09547358192032432</v>
+        <v>0.09345453574585715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -8436,19 +8436,19 @@
         <v>93412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78288</v>
+        <v>78983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108169</v>
+        <v>108823</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08371407830509996</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07015976163268069</v>
+        <v>0.07078274655925995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09693861040955884</v>
+        <v>0.09752502116730744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>225</v>
@@ -8457,19 +8457,19 @@
         <v>164876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>143504</v>
+        <v>141677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192147</v>
+        <v>188773</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07942038312776958</v>
+        <v>0.07942038312776957</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0691256211743255</v>
+        <v>0.06824579575955213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09255713442224231</v>
+        <v>0.09093168078664372</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>568347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>536602</v>
+        <v>530546</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>604431</v>
+        <v>600631</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5919439087571178</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5588808602639327</v>
+        <v>0.5525729667116133</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6295260534376634</v>
+        <v>0.6255678245715007</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>981</v>
@@ -8507,19 +8507,19 @@
         <v>658820</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>629602</v>
+        <v>630700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>687438</v>
+        <v>689369</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5904202575542843</v>
+        <v>0.5904202575542844</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5642357925562962</v>
+        <v>0.5652200189293893</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6160671107920591</v>
+        <v>0.6177977527799269</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1528</v>
@@ -8528,19 +8528,19 @@
         <v>1227167</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1182223</v>
+        <v>1183246</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1269981</v>
+        <v>1271385</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5911249412137509</v>
+        <v>0.5911249412137508</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5694755633700419</v>
+        <v>0.5699681962949003</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6117483207960408</v>
+        <v>0.6124244883067409</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>282875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249927</v>
+        <v>253147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>313199</v>
+        <v>318267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2946192103934691</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2603033415745351</v>
+        <v>0.2636574099874261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3262020262975949</v>
+        <v>0.3314812550673717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>426</v>
@@ -8578,19 +8578,19 @@
         <v>326204</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>298957</v>
+        <v>297059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>355648</v>
+        <v>352440</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2923373438604579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2679185886679709</v>
+        <v>0.2662176931484722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3187239200740736</v>
+        <v>0.315848827196732</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>683</v>
@@ -8599,19 +8599,19 @@
         <v>609079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>564501</v>
+        <v>571333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>653684</v>
+        <v>656782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2933926996111089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2719194688397328</v>
+        <v>0.2752102489463951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.314878943735682</v>
+        <v>0.3163711552458204</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>31922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21680</v>
+        <v>21010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48855</v>
+        <v>49255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03324739440574368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02258012161519655</v>
+        <v>0.02188216213261482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05088333417862102</v>
+        <v>0.05130042672761899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -8649,19 +8649,19 @@
         <v>29708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21397</v>
+        <v>21080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41237</v>
+        <v>40484</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02662343677190536</v>
+        <v>0.02662343677190537</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01917541451937279</v>
+        <v>0.01889142726691129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03695559722909873</v>
+        <v>0.03628056169748457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -8670,19 +8670,19 @@
         <v>61630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47563</v>
+        <v>46687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82684</v>
+        <v>79133</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02968699534547136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0229109822240591</v>
+        <v>0.02248920920352892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03982885543998944</v>
+        <v>0.03811838039746525</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>9617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4306</v>
+        <v>4204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21004</v>
+        <v>20651</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009189848305073684</v>
+        <v>0.009189848305073682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004114542898624072</v>
+        <v>0.004017596069224888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02007107885325845</v>
+        <v>0.01973366746150632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -8795,19 +8795,19 @@
         <v>11114</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6682</v>
+        <v>6756</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17619</v>
+        <v>17252</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01060870724597269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006377858357469196</v>
+        <v>0.006449101034040239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01681792771134858</v>
+        <v>0.0164671915381416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -8816,19 +8816,19 @@
         <v>20731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12950</v>
+        <v>13620</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33886</v>
+        <v>34300</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009899671549588438</v>
+        <v>0.00989967154958844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006183848587681707</v>
+        <v>0.006503701747209861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01618169073188453</v>
+        <v>0.01637917243815023</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>107438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87619</v>
+        <v>87264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131764</v>
+        <v>130972</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1026658395667415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08372742631491364</v>
+        <v>0.083387931743246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1259113222061456</v>
+        <v>0.1251548586462576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -8866,19 +8866,19 @@
         <v>97981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83565</v>
+        <v>82845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115339</v>
+        <v>114160</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09352571944522578</v>
+        <v>0.09352571944522581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07976513103495123</v>
+        <v>0.07907722378447128</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1100943255438588</v>
+        <v>0.1089683452031634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -8887,19 +8887,19 @@
         <v>205419</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180261</v>
+        <v>178556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>233280</v>
+        <v>232300</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0980932428604064</v>
+        <v>0.09809324286040641</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08607962778755433</v>
+        <v>0.08526559195282671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1113973903160434</v>
+        <v>0.1109294861329013</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>580771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>544679</v>
+        <v>547290</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>612142</v>
+        <v>617191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5549765365882642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5204871739054249</v>
+        <v>0.5229826637867597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5849535888995933</v>
+        <v>0.5897788100496282</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>919</v>
@@ -8937,19 +8937,19 @@
         <v>617858</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>589872</v>
+        <v>588216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>649580</v>
+        <v>645707</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5897603750632961</v>
+        <v>0.5897603750632963</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5630471857686417</v>
+        <v>0.5614666127853225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6200398464189766</v>
+        <v>0.6163427261877112</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1528</v>
@@ -8958,19 +8958,19 @@
         <v>1198629</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1151917</v>
+        <v>1155465</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1245558</v>
+        <v>1244875</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5723781093389566</v>
+        <v>0.5723781093389567</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5500717184789582</v>
+        <v>0.5517663031228431</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5947882127369457</v>
+        <v>0.5944616233518444</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>313460</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281016</v>
+        <v>280177</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>347939</v>
+        <v>346942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2995374167280531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2685343048253985</v>
+        <v>0.2677330409435925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3324854519042502</v>
+        <v>0.3315323940788545</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>392</v>
@@ -9008,19 +9008,19 @@
         <v>297708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>270508</v>
+        <v>272200</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>324475</v>
+        <v>323651</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.284169360266182</v>
+        <v>0.2841693602661821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2582065414355619</v>
+        <v>0.2598216068254481</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3097193621307667</v>
+        <v>0.3089327636237277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>676</v>
@@ -9029,19 +9029,19 @@
         <v>611167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>570213</v>
+        <v>571363</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>654243</v>
+        <v>652134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2918491234205172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.27229246258079</v>
+        <v>0.2728413134127325</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3124188158344722</v>
+        <v>0.3114119877284255</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>35193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23106</v>
+        <v>22375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54751</v>
+        <v>56757</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03363035881186752</v>
+        <v>0.03363035881186753</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02207956577821461</v>
+        <v>0.021381339548224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05231952149496936</v>
+        <v>0.0542365556093451</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -9079,19 +9079,19 @@
         <v>22981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15728</v>
+        <v>15734</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30514</v>
+        <v>31652</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02193583797932327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01501267351441093</v>
+        <v>0.01501869331786665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02912642302666027</v>
+        <v>0.03021276933266303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -9100,19 +9100,19 @@
         <v>58174</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43027</v>
+        <v>42547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82384</v>
+        <v>79473</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02777985283053132</v>
+        <v>0.02777985283053133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02054641038923895</v>
+        <v>0.02031758162540381</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03934072893483272</v>
+        <v>0.03795071941968877</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>16273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9971</v>
+        <v>9306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26629</v>
+        <v>25610</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01667446909325509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01021678576936826</v>
+        <v>0.009535978328709735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02728627405844809</v>
+        <v>0.02624160751255867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -9225,19 +9225,19 @@
         <v>15608</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9375</v>
+        <v>9850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26082</v>
+        <v>26931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01719547303993242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01032798015387277</v>
+        <v>0.01085119850052966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02873391808477809</v>
+        <v>0.02966952662874589</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -9246,19 +9246,19 @@
         <v>31881</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22474</v>
+        <v>22493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46299</v>
+        <v>44488</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01692553418346089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01193123247124488</v>
+        <v>0.01194141146716567</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02457991781648901</v>
+        <v>0.02361828636419163</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>113974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96990</v>
+        <v>96033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>134176</v>
+        <v>134812</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1167853621810552</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09938266020351033</v>
+        <v>0.09840164281510083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1374858417918313</v>
+        <v>0.1381372463189793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -9296,19 +9296,19 @@
         <v>151150</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>131826</v>
+        <v>132878</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>170411</v>
+        <v>171557</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1665207333588298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1452323004954959</v>
+        <v>0.146391203382594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1877404448827574</v>
+        <v>0.1890034545595244</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>376</v>
@@ -9317,19 +9317,19 @@
         <v>265124</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>236145</v>
+        <v>239975</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>294429</v>
+        <v>295531</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1407521968486247</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1253673108363029</v>
+        <v>0.1274009741089266</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1563101486460847</v>
+        <v>0.1568951189867097</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>482949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>447736</v>
+        <v>445602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515637</v>
+        <v>514554</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4948603046373439</v>
+        <v>0.494860304637344</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.458778833040218</v>
+        <v>0.4565927453787736</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5283555450148565</v>
+        <v>0.5272453397959267</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>661</v>
@@ -9367,19 +9367,19 @@
         <v>427630</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>399269</v>
+        <v>399885</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>454426</v>
+        <v>454299</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4711169350363553</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4398725217127242</v>
+        <v>0.4405511002311136</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.500638769180316</v>
+        <v>0.5004989052504391</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1147</v>
@@ -9388,19 +9388,19 @@
         <v>910579</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>870084</v>
+        <v>863860</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>955087</v>
+        <v>955610</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4834186806944188</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4619204781539506</v>
+        <v>0.4586161562468313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5070479717049459</v>
+        <v>0.5073256914635847</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>319249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>287844</v>
+        <v>284421</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>353455</v>
+        <v>351116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3271235807211344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2949438343049338</v>
+        <v>0.2914359579176863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3621726752873093</v>
+        <v>0.35977662679273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>353</v>
@@ -9438,19 +9438,19 @@
         <v>272459</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>247946</v>
+        <v>245174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>300477</v>
+        <v>296859</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3001664857770664</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2731608661787444</v>
+        <v>0.2701062472373666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3310342021658117</v>
+        <v>0.3270474698224194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>629</v>
@@ -9459,19 +9459,19 @@
         <v>591709</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>549241</v>
+        <v>548928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>635876</v>
+        <v>635595</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3141333039353613</v>
+        <v>0.3141333039353614</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2915873223714399</v>
+        <v>0.2914211097811094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3375813286412152</v>
+        <v>0.3374321035113284</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>43484</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30625</v>
+        <v>30772</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62761</v>
+        <v>62097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04455628336721135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03138007060973723</v>
+        <v>0.03153137863372974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0643090050133186</v>
+        <v>0.06362827750178836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -9509,19 +9509,19 @@
         <v>40847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29869</v>
+        <v>28692</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55257</v>
+        <v>55936</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04500037278781607</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03290626554971619</v>
+        <v>0.03160980418759784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06087681783241639</v>
+        <v>0.0616239616865655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -9530,19 +9530,19 @@
         <v>84330</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>66491</v>
+        <v>65868</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107415</v>
+        <v>106870</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04477028433813415</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03529977806836019</v>
+        <v>0.03496864087300986</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05702551050347358</v>
+        <v>0.05673654256397587</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>35480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25464</v>
+        <v>25526</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51696</v>
+        <v>51514</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01019445389678395</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007316461659548067</v>
+        <v>0.007334196288441031</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01485357723698101</v>
+        <v>0.01480129949147584</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -9655,19 +9655,19 @@
         <v>45583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35501</v>
+        <v>33014</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60201</v>
+        <v>59461</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01233921742647805</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009609997826918732</v>
+        <v>0.008936855271185146</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01629623116349828</v>
+        <v>0.01609586525415535</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>99</v>
@@ -9676,19 +9676,19 @@
         <v>81064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65335</v>
+        <v>66278</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>99524</v>
+        <v>102428</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01129879926843149</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009106439840017327</v>
+        <v>0.009237992024379698</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01387177734667269</v>
+        <v>0.01427651587318223</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>317285</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>280314</v>
+        <v>282733</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>352768</v>
+        <v>353817</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09116479708661349</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08054199473979705</v>
+        <v>0.08123684102634963</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1013600178486659</v>
+        <v>0.1016613288784958</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>610</v>
@@ -9726,19 +9726,19 @@
         <v>386481</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>356482</v>
+        <v>354294</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>418944</v>
+        <v>419105</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.104618358353244</v>
+        <v>0.1046183583532441</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09649785140411701</v>
+        <v>0.09590562498658078</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1134061258815339</v>
+        <v>0.113449527069152</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>943</v>
@@ -9747,19 +9747,19 @@
         <v>703766</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>655520</v>
+        <v>651272</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>751115</v>
+        <v>749647</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0980920773724262</v>
+        <v>0.09809207737242621</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09136739460962887</v>
+        <v>0.09077542897772513</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1046916303589401</v>
+        <v>0.1044870354788318</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1904030</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1838088</v>
+        <v>1838814</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1962850</v>
+        <v>1971210</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5470800102046682</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5281329520421307</v>
+        <v>0.5283415617890068</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5639807519035661</v>
+        <v>0.5663827553482389</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3067</v>
@@ -9797,19 +9797,19 @@
         <v>2070423</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2009819</v>
+        <v>2017713</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2125457</v>
+        <v>2120318</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.560453034703383</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.544047631529974</v>
+        <v>0.5461846851079589</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5753503970131142</v>
+        <v>0.573959365240011</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4958</v>
@@ -9818,19 +9818,19 @@
         <v>3974453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3896491</v>
+        <v>3894014</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4061720</v>
+        <v>4069132</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.553965821859714</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5430993320092485</v>
+        <v>0.5427540469616849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5661292673858013</v>
+        <v>0.5671623007384782</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1081916</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1022843</v>
+        <v>1020178</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1139033</v>
+        <v>1145643</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.310864035870818</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2938909869964994</v>
+        <v>0.2931251627262776</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3272753817441392</v>
+        <v>0.3291745826207967</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1422</v>
@@ -9868,19 +9868,19 @@
         <v>1077699</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1028036</v>
+        <v>1032757</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1128245</v>
+        <v>1133719</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2917277526284366</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2782841347017217</v>
+        <v>0.2795620119878864</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3054100601302459</v>
+        <v>0.3068919127966604</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2389</v>
@@ -9889,19 +9889,19 @@
         <v>2159615</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2082251</v>
+        <v>2076111</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2238234</v>
+        <v>2237646</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3010107044724263</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2902275985526598</v>
+        <v>0.2893718010062871</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.311968700070245</v>
+        <v>0.311886796394694</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>141639</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>116730</v>
+        <v>115696</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174079</v>
+        <v>173695</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04069670294111629</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03353982631035262</v>
+        <v>0.03324252090826093</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05001760833272417</v>
+        <v>0.0499074344113356</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>141</v>
@@ -9939,19 +9939,19 @@
         <v>114009</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>95706</v>
+        <v>95901</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>135546</v>
+        <v>136020</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03086163688845818</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02590699885113209</v>
+        <v>0.0259598506285979</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03669173304243988</v>
+        <v>0.03682004624038553</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>253</v>
@@ -9960,19 +9960,19 @@
         <v>255648</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>223945</v>
+        <v>226695</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>295504</v>
+        <v>294827</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03563259702700187</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03121388720442558</v>
+        <v>0.03159711534442461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04118779301502561</v>
+        <v>0.04109345432486781</v>
       </c>
     </row>
     <row r="33">
